--- a/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.48</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,25 +596,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>83.09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.51</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2697</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.95</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4332</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.82</v>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.13</v>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,1557 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3205,7 +3206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3216,17 +3217,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3236,14 +3257,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.970000000000001</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0664</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3252,14 +3295,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.95</v>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3268,14 +3333,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.82</v>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6448</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3284,14 +3371,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.13</v>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3300,13 +3409,1117 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4678</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3966</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3597</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>54.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>53.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>54.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4402,7 +4403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4413,17 +4414,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4433,14 +4454,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.51</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4449,14 +4492,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.970000000000001</v>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8815</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4465,14 +4530,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.95</v>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4481,14 +4568,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.82</v>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4497,14 +4606,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.13</v>
+          <t>012008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -4513,13 +4644,943 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>7.57</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>9.51</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>8.970000000000001</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>2.95</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.82</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.13</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.77</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>89.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6221</t>
+          <t>3.7400</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -704,22 +721,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.52</t>
+          <t>89.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8815</t>
+          <t>0.7858</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000925</t>
+          <t>110002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富外延增长主题股票A</t>
+          <t>易方达策略成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5339</t>
+          <t>0.3801</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110002</t>
+          <t>012008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达策略成长混合</t>
+          <t>易方达稳健回报混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>56.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4439</t>
+          <t>0.3563</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012008</t>
+          <t>112002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达稳健回报一年封闭运作混合型证券投资基金A</t>
+          <t>易方达策略成长二号混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.51</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>58.13</t>
+          <t>91.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4128</t>
+          <t>0.3221</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>112002</t>
+          <t>011777</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达策略成长二号混合</t>
+          <t>易方达稳健增长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>56.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3802</t>
+          <t>0.2971</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -889,27 +906,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达稳健增利混合型证券投资基金A</t>
+          <t>易方达稳健增利混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.36</t>
+          <t>11.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60.26</t>
+          <t>55.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3188</t>
+          <t>0.2913</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011777</t>
+          <t>000545</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达稳健增长混合型证券投资基金A</t>
+          <t>中邮核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.80</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>74.59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3091</t>
+          <t>0.1783</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>80.97</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1827</t>
+          <t>0.1297</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000545</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中邮核心竞争力灵活配置混合</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.67</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1514</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004845</t>
+          <t>002378</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南华瑞盈混合A</t>
+          <t>建信弘利灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0875</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1074,32 +1091,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>009135</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>广发恒隆一年持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>24.66</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002378</t>
+          <t>012009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建信弘利灵活配置混合</t>
+          <t>易方达稳健回报混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>56.61</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0430</t>
+          <t>0.0414</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>012009</t>
+          <t>011192</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达稳健回报一年封闭运作混合型证券投资基金C</t>
+          <t>广发恒荣三个月持有期混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>58.13</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0430</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003842</t>
+          <t>009136</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合A</t>
+          <t>广发恒隆一年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>35.50</t>
+          <t>24.66</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0301</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008846</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大成民稳增长混合A</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>77.57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009796</t>
+          <t>001189</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成汇享一年持有期混合A</t>
+          <t>广发聚宝混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>24.91</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0272</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1302,32 +1319,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>012176</t>
+          <t>007848</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达稳健增利混合型证券投资基金C</t>
+          <t>广发聚宝混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>60.26</t>
+          <t>24.91</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0213</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011778</t>
+          <t>008846</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达稳健增长混合型证券投资基金C</t>
+          <t>大成民稳增长混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>24.15</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1378,36 +1395,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>009796</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>大成汇享一年持有期混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>24.24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0171</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008847</t>
+          <t>012176</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成民稳增长混合C</t>
+          <t>易方达稳健增利混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>55.71</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1454,36 +1471,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>004846</t>
+          <t>009489</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南华瑞盈混合C</t>
+          <t>中邮价值精选混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>77.57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1492,32 +1509,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011424</t>
+          <t>011778</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>汇添富外延增长主题股票C</t>
+          <t>易方达稳健增长混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>56.13</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1530,36 +1547,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001430</t>
+          <t>008847</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中邮乐享收益灵活配置混合</t>
+          <t>大成民稳增长混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27.62</t>
+          <t>24.15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1568,12 +1585,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003843</t>
+          <t>011193</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合C</t>
+          <t>广发恒荣三个月持有期混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1583,21 +1600,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>35.50</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1621,12 +1638,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>24.24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1635,7 +1652,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1644,6 +1661,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8815</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2839,7 +3900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4446,442 +5507,6 @@
       </c>
       <c r="H42" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2697</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000545</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3018</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009488</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1117</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003401</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信可转债债券</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>35.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>65.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0509</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009489</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007254</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发均衡价值混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0334</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>69.32</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002281</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信裕利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0294</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>77.35</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4946,36 +5571,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.74</t>
+          <t>43.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0760</t>
+          <t>2.2697</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4994,22 +5619,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67.74</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2843</t>
+          <t>0.3018</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -5022,36 +5647,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>78.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1919</t>
+          <t>0.1117</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5060,36 +5685,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>003401</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>工银瑞信可转债债券</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>64.55</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1306</t>
+          <t>0.0706</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5098,36 +5723,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009489</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮价值精选混合C</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>64.55</t>
+          <t>65.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0440</t>
+          <t>0.0509</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -5136,36 +5761,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>009489</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合A</t>
+          <t>中邮价值精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>78.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0390</t>
+          <t>0.0360</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -5184,26 +5809,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>83.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0334</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -5212,36 +5837,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001515</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合C</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>69.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0168</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -5250,36 +5875,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>87.31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -5288,36 +5913,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>77.35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5326,6 +5951,442 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5495,7 +6556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603995-甬金股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>7.57</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>9.51</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>8.970000000000001</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>2.95</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.82</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>1.13</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +794,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>79.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.7400</t>
+          <t>3.7312</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,26 +832,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.16</t>
+          <t>88.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7858</t>
+          <t>0.6739</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110002</t>
+          <t>012008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达策略成长混合</t>
+          <t>易方达稳健回报混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>13.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>62.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3801</t>
+          <t>0.3071</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012008</t>
+          <t>000545</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达稳健回报混合A</t>
+          <t>中邮核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>56.61</t>
+          <t>86.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3563</t>
+          <t>0.2781</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>112002</t>
+          <t>011777</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达策略成长二号混合</t>
+          <t>易方达稳健增长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>59.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3221</t>
+          <t>0.2560</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +974,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011777</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达稳健增长混合A</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>56.13</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2971</t>
+          <t>0.1672</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1012,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012175</t>
+          <t>009135</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达稳健增利混合A</t>
+          <t>广发恒隆一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.70</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>55.71</t>
+          <t>20.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2913</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1050,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000545</t>
+          <t>001484</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮核心竞争力灵活配置混合</t>
+          <t>天弘新价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.59</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1783</t>
+          <t>0.0363</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1088,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>012009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>易方达稳健回报混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.97</t>
+          <t>62.71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1297</t>
+          <t>0.0353</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1126,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>002378</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>建信弘利灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0580</t>
+          <t>0.0317</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1164,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002378</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建信弘利灵活配置混合</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>78.46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +1202,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009135</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发恒隆一年持有期混合A</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0514</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1240,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012009</t>
+          <t>011192</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达稳健回报混合C</t>
+          <t>广发恒荣三个月持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>56.61</t>
+          <t>34.93</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1278,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011192</t>
+          <t>009136</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发恒荣三个月持有期混合A</t>
+          <t>广发恒隆一年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>35.91</t>
+          <t>20.71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +1316,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009136</t>
+          <t>009489</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发恒隆一年持有期混合C</t>
+          <t>中邮价值精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>78.46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1243,32 +1354,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>009796</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>大成汇享一年持有期混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77.57</t>
+          <t>25.92</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1281,36 +1392,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001189</t>
+          <t>011778</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发聚宝混合A</t>
+          <t>易方达稳健增长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24.91</t>
+          <t>59.54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1319,36 +1430,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007848</t>
+          <t>016053</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发聚宝混合C</t>
+          <t>泰康先进材料股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24.91</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1357,36 +1468,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008846</t>
+          <t>016054</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大成民稳增长混合A</t>
+          <t>泰康先进材料股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>24.15</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +1506,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009796</t>
+          <t>011193</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大成汇享一年持有期混合A</t>
+          <t>广发恒荣三个月持有期混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>34.93</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0171</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +1544,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012176</t>
+          <t>016246</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达稳健增利混合C</t>
+          <t>天弘新价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>55.71</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0152</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1471,32 +1582,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009489</t>
+          <t>009797</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中邮价值精选混合C</t>
+          <t>大成汇享一年持有期混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>77.57</t>
+          <t>25.92</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1509,150 +1620,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011778</t>
+          <t>017194</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>易方达稳健增长混合C</t>
+          <t>建信弘利灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>56.13</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008847</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>大成民稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>24.15</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011193</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发恒荣三个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>35.91</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009797</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>大成汇享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>24.24</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1727,26 +1722,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.77</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>89.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6221</t>
+          <t>3.7400</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1765,22 +1760,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.52</t>
+          <t>89.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8815</t>
+          <t>0.7858</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1793,36 +1788,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000925</t>
+          <t>110002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富外延增长主题股票A</t>
+          <t>易方达策略成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5339</t>
+          <t>0.3801</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1831,36 +1826,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110002</t>
+          <t>012008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达策略成长混合</t>
+          <t>易方达稳健回报混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>56.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4439</t>
+          <t>0.3563</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1869,36 +1864,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012008</t>
+          <t>112002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达稳健回报一年封闭运作混合型证券投资基金A</t>
+          <t>易方达策略成长二号混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.51</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>58.13</t>
+          <t>91.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4128</t>
+          <t>0.3221</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1907,36 +1902,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>112002</t>
+          <t>011777</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达策略成长二号混合</t>
+          <t>易方达稳健增长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>56.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3802</t>
+          <t>0.2971</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1950,27 +1945,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达稳健增利混合型证券投资基金A</t>
+          <t>易方达稳健增利混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.36</t>
+          <t>11.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60.26</t>
+          <t>55.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3188</t>
+          <t>0.2913</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1983,36 +1978,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011777</t>
+          <t>000545</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达稳健增长混合型证券投资基金A</t>
+          <t>中邮核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.80</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>74.59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3091</t>
+          <t>0.1783</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2021,36 +2016,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>80.97</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1827</t>
+          <t>0.1297</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2059,36 +2054,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000545</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中邮核心竞争力灵活配置混合</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.67</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1514</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2097,36 +2092,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004845</t>
+          <t>002378</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南华瑞盈混合A</t>
+          <t>建信弘利灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0875</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2135,32 +2130,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>009135</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>广发恒隆一年持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>24.66</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2173,36 +2168,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002378</t>
+          <t>012009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建信弘利灵活配置混合</t>
+          <t>易方达稳健回报混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>56.61</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0430</t>
+          <t>0.0414</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2211,36 +2206,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>012009</t>
+          <t>011192</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达稳健回报一年封闭运作混合型证券投资基金C</t>
+          <t>广发恒荣三个月持有期混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>58.13</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0430</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2249,36 +2244,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003842</t>
+          <t>009136</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合A</t>
+          <t>广发恒隆一年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>35.50</t>
+          <t>24.66</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0301</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -2287,36 +2282,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008846</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大成民稳增长混合A</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>77.57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2325,36 +2320,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009796</t>
+          <t>001189</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成汇享一年持有期混合A</t>
+          <t>广发聚宝混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>24.91</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0272</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2363,32 +2358,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>012176</t>
+          <t>007848</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达稳健增利混合型证券投资基金C</t>
+          <t>广发聚宝混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>60.26</t>
+          <t>24.91</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0213</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2401,36 +2396,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011778</t>
+          <t>008846</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达稳健增长混合型证券投资基金C</t>
+          <t>大成民稳增长混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>24.15</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2439,36 +2434,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>009796</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>大成汇享一年持有期混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>24.24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0171</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2477,36 +2472,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008847</t>
+          <t>012176</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成民稳增长混合C</t>
+          <t>易方达稳健增利混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>55.71</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2515,36 +2510,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>004846</t>
+          <t>009489</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南华瑞盈混合C</t>
+          <t>中邮价值精选混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>77.57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2553,32 +2548,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011424</t>
+          <t>011778</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>汇添富外延增长主题股票C</t>
+          <t>易方达稳健增长混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>56.13</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2591,36 +2586,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001430</t>
+          <t>008847</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中邮乐享收益灵活配置混合</t>
+          <t>大成民稳增长混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27.62</t>
+          <t>24.15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -2629,12 +2624,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003843</t>
+          <t>011193</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合C</t>
+          <t>广发恒荣三个月持有期混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2644,21 +2639,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>35.50</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2682,12 +2677,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>24.24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2696,7 +2691,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2705,6 +2700,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8815</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3900,7 +4939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5507,442 +6546,6 @@
       </c>
       <c r="H42" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2697</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000545</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3018</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009488</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1117</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003401</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信可转债债券</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>35.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>65.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0509</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009489</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007254</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发均衡价值混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0334</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>69.32</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002281</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信裕利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0294</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>77.35</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6007,36 +6610,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.74</t>
+          <t>43.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0760</t>
+          <t>2.2697</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6055,22 +6658,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67.74</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2843</t>
+          <t>0.3018</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -6083,36 +6686,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>78.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1919</t>
+          <t>0.1117</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6121,36 +6724,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>003401</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>工银瑞信可转债债券</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>64.55</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1306</t>
+          <t>0.0706</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6159,36 +6762,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009489</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮价值精选混合C</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>64.55</t>
+          <t>65.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0440</t>
+          <t>0.0509</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -6197,36 +6800,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>009489</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合A</t>
+          <t>中邮价值精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>78.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0390</t>
+          <t>0.0360</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -6245,26 +6848,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>83.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0334</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -6273,36 +6876,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001515</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合C</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>69.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0168</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -6311,36 +6914,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>87.31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -6349,36 +6952,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>77.35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6387,6 +6990,442 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6554,98 +7593,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0460</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>